--- a/EJEMPLOS EN EXCEL/BONILLA/R4XL-PIVOTE.xlsx
+++ b/EJEMPLOS EN EXCEL/BONILLA/R4XL-PIVOTE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\R4XCL\PROCESO DOCUMENTAL\EJEMPLOS EN EXCEL\BONILLA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\R4XCL\LIBRERIA\EJEMPLOS EN EXCEL\BONILLA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DDEC7E-0DB1-4704-9572-5D0043F263DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD4445A-5FDC-4EC9-9073-7B7D8F9B7C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="14566" windowHeight="15563" activeTab="1" xr2:uid="{501212C7-ACB0-498E-BD31-969CA01024C6}"/>
+    <workbookView xWindow="2115" yWindow="2115" windowWidth="21600" windowHeight="11145" xr2:uid="{501212C7-ACB0-498E-BD31-969CA01024C6}"/>
   </bookViews>
   <sheets>
     <sheet name="PIVOT" sheetId="2" r:id="rId1"/>
@@ -94,9 +94,6 @@
     <t>Filtro</t>
   </si>
   <si>
-    <t>Minor</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
@@ -137,6 +134,9 @@
   </si>
   <si>
     <t>Resultado</t>
+  </si>
+  <si>
+    <t>VAR</t>
   </si>
 </sst>
 </file>
@@ -548,7 +548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59EA589-6E91-4E7C-9DED-4314F1473C9B}">
   <dimension ref="A1:O151"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -577,7 +577,7 @@
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
         <v>10</v>
@@ -603,7 +603,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -635,13 +635,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>Species</v>
       </c>
       <c r="K4" t="str">
-        <v>Minor</v>
+        <v>VAR</v>
       </c>
       <c r="L4" t="str">
         <v>Sepal.Lenght</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -945,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1207,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1285,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1389,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -1519,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -1571,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -1623,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -1727,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -1753,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -1857,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -1961,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>1</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>1</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -2091,7 +2091,7 @@
         <v>1</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -2117,7 +2117,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>1</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -2169,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -2195,7 +2195,7 @@
         <v>1</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -2221,7 +2221,7 @@
         <v>1</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>1</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -2273,7 +2273,7 @@
         <v>1</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>1</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -2325,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -2351,7 +2351,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>1</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -2403,7 +2403,7 @@
         <v>1</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -2429,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -2455,7 +2455,7 @@
         <v>1</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>1</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -2507,7 +2507,7 @@
         <v>1</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>1</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -2559,7 +2559,7 @@
         <v>1</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -2585,7 +2585,7 @@
         <v>1</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>1</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -2637,7 +2637,7 @@
         <v>1</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>1</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         <v>1</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>1</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -2741,7 +2741,7 @@
         <v>1</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>1</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -2793,7 +2793,7 @@
         <v>1</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -2819,7 +2819,7 @@
         <v>1</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>1</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -2871,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -2897,7 +2897,7 @@
         <v>1</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -2923,7 +2923,7 @@
         <v>1</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         <v>1</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -2975,7 +2975,7 @@
         <v>1</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>1</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -3027,7 +3027,7 @@
         <v>1</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -3053,7 +3053,7 @@
         <v>1</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>1</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -3105,7 +3105,7 @@
         <v>1</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>1</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -3157,7 +3157,7 @@
         <v>1</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -3183,7 +3183,7 @@
         <v>1</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -3209,7 +3209,7 @@
         <v>1</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -3261,7 +3261,7 @@
         <v>1</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -3287,7 +3287,7 @@
         <v>2</v>
       </c>
       <c r="G102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>2</v>
       </c>
       <c r="G103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>2</v>
       </c>
       <c r="G104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>2</v>
       </c>
       <c r="G105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         <v>2</v>
       </c>
       <c r="G106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -3417,7 +3417,7 @@
         <v>2</v>
       </c>
       <c r="G107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -3443,7 +3443,7 @@
         <v>2</v>
       </c>
       <c r="G108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>2</v>
       </c>
       <c r="G109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -3495,7 +3495,7 @@
         <v>2</v>
       </c>
       <c r="G110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>2</v>
       </c>
       <c r="G111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>2</v>
       </c>
       <c r="G112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -3573,7 +3573,7 @@
         <v>2</v>
       </c>
       <c r="G113" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -3599,7 +3599,7 @@
         <v>2</v>
       </c>
       <c r="G114" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -3625,7 +3625,7 @@
         <v>2</v>
       </c>
       <c r="G115" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -3651,7 +3651,7 @@
         <v>2</v>
       </c>
       <c r="G116" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -3677,7 +3677,7 @@
         <v>2</v>
       </c>
       <c r="G117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -3703,7 +3703,7 @@
         <v>2</v>
       </c>
       <c r="G118" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>2</v>
       </c>
       <c r="G119" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>2</v>
       </c>
       <c r="G120" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -3781,7 +3781,7 @@
         <v>2</v>
       </c>
       <c r="G121" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -3807,7 +3807,7 @@
         <v>2</v>
       </c>
       <c r="G122" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -3833,7 +3833,7 @@
         <v>2</v>
       </c>
       <c r="G123" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -3859,7 +3859,7 @@
         <v>2</v>
       </c>
       <c r="G124" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -3885,7 +3885,7 @@
         <v>2</v>
       </c>
       <c r="G125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -3911,7 +3911,7 @@
         <v>2</v>
       </c>
       <c r="G126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -3937,7 +3937,7 @@
         <v>2</v>
       </c>
       <c r="G127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>2</v>
       </c>
       <c r="G128" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -3989,7 +3989,7 @@
         <v>2</v>
       </c>
       <c r="G129" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -4015,7 +4015,7 @@
         <v>2</v>
       </c>
       <c r="G130" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -4041,7 +4041,7 @@
         <v>2</v>
       </c>
       <c r="G131" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>2</v>
       </c>
       <c r="G132" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -4093,7 +4093,7 @@
         <v>2</v>
       </c>
       <c r="G133" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -4119,7 +4119,7 @@
         <v>2</v>
       </c>
       <c r="G134" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -4145,7 +4145,7 @@
         <v>2</v>
       </c>
       <c r="G135" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -4171,7 +4171,7 @@
         <v>2</v>
       </c>
       <c r="G136" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>2</v>
       </c>
       <c r="G137" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -4223,7 +4223,7 @@
         <v>2</v>
       </c>
       <c r="G138" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -4249,7 +4249,7 @@
         <v>2</v>
       </c>
       <c r="G139" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -4275,7 +4275,7 @@
         <v>2</v>
       </c>
       <c r="G140" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -4301,7 +4301,7 @@
         <v>2</v>
       </c>
       <c r="G141" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -4327,7 +4327,7 @@
         <v>2</v>
       </c>
       <c r="G142" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -4353,7 +4353,7 @@
         <v>2</v>
       </c>
       <c r="G143" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -4379,7 +4379,7 @@
         <v>2</v>
       </c>
       <c r="G144" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -4405,7 +4405,7 @@
         <v>2</v>
       </c>
       <c r="G145" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -4431,7 +4431,7 @@
         <v>2</v>
       </c>
       <c r="G146" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -4457,7 +4457,7 @@
         <v>2</v>
       </c>
       <c r="G147" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -4483,7 +4483,7 @@
         <v>2</v>
       </c>
       <c r="G148" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -4509,7 +4509,7 @@
         <v>2</v>
       </c>
       <c r="G149" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -4535,7 +4535,7 @@
         <v>2</v>
       </c>
       <c r="G150" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -4561,7 +4561,7 @@
         <v>2</v>
       </c>
       <c r="G151" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -4577,7 +4577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E88A1FC-D852-4742-BDAB-CDA925D54C3E}">
   <dimension ref="A2:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -4588,13 +4588,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
@@ -4602,19 +4602,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" s="7" t="str" cm="1">
         <f t="array" ref="I4:M7">_xll.R.DB_Union(A4:C12,E4:G8)</f>
@@ -4638,7 +4638,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4">
         <v>26</v>
@@ -4647,10 +4647,10 @@
         <v>7</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" s="8" t="str">
         <v>1</v>
@@ -4673,7 +4673,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4">
         <v>28</v>
@@ -4682,10 +4682,10 @@
         <v>4</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I6" s="8" t="str">
         <v>4</v>
@@ -4708,7 +4708,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4">
         <v>14</v>
@@ -4717,10 +4717,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I7" s="8" t="str">
         <v>7</v>
@@ -4743,7 +4743,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="4">
         <v>32</v>
@@ -4752,10 +4752,10 @@
         <v>9</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -4768,7 +4768,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="4">
         <v>40</v>
@@ -4784,7 +4784,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="4">
         <v>50</v>
@@ -4800,7 +4800,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="4">
         <v>19</v>
@@ -4816,7 +4816,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="4">
         <v>70</v>

--- a/EJEMPLOS EN EXCEL/BONILLA/R4XL-PIVOTE.xlsx
+++ b/EJEMPLOS EN EXCEL/BONILLA/R4XL-PIVOTE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\R4XCL\LIBRERIA\EJEMPLOS EN EXCEL\BONILLA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD4445A-5FDC-4EC9-9073-7B7D8F9B7C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F2906A-65ED-41CB-8981-6E2219F5F3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="2115" windowWidth="21600" windowHeight="11145" xr2:uid="{501212C7-ACB0-498E-BD31-969CA01024C6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{501212C7-ACB0-498E-BD31-969CA01024C6}"/>
   </bookViews>
   <sheets>
     <sheet name="PIVOT" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="27">
   <si>
     <t>setosa</t>
   </si>
@@ -138,12 +138,15 @@
   <si>
     <t>VAR</t>
   </si>
+  <si>
+    <t>Tipo de Output</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +158,13 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -186,7 +196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -194,11 +204,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -212,6 +237,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,7 +577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59EA589-6E91-4E7C-9DED-4314F1473C9B}">
   <dimension ref="A1:O151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -4575,29 +4604,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E88A1FC-D852-4742-BDAB-CDA925D54C3E}">
-  <dimension ref="A2:M12"/>
+  <dimension ref="A2:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="5" max="5" width="12.1328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -4616,24 +4645,8 @@
       <c r="G4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="7" t="str" cm="1">
-        <f t="array" ref="I4:M7">_xll.R.DB_Union(A4:C12,E4:G8)</f>
-        <v>ID</v>
-      </c>
-      <c r="J4" s="8" t="str">
-        <v>ID2.x</v>
-      </c>
-      <c r="K4" s="8" t="str">
-        <v>EDAD</v>
-      </c>
-      <c r="L4" s="8" t="str">
-        <v>ID2.y</v>
-      </c>
-      <c r="M4" s="8" t="str">
-        <v>GENERO</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -4652,23 +4665,8 @@
       <c r="G5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="8" t="str">
-        <v>1</v>
-      </c>
-      <c r="J5" s="8" t="str">
-        <v>a</v>
-      </c>
-      <c r="K5" s="8">
-        <v>26</v>
-      </c>
-      <c r="L5" s="8" t="str">
-        <v>b</v>
-      </c>
-      <c r="M5" s="8" t="str">
-        <v>M</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -4687,23 +4685,8 @@
       <c r="G6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="8" t="str">
-        <v>4</v>
-      </c>
-      <c r="J6" s="8" t="str">
-        <v>b</v>
-      </c>
-      <c r="K6" s="8">
-        <v>32</v>
-      </c>
-      <c r="L6" s="8" t="str">
-        <v>b</v>
-      </c>
-      <c r="M6" s="8" t="str">
-        <v>F</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -4722,23 +4705,8 @@
       <c r="G7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="8" t="str">
-        <v>7</v>
-      </c>
-      <c r="J7" s="8" t="str">
-        <v>d</v>
-      </c>
-      <c r="K7" s="8">
-        <v>19</v>
-      </c>
-      <c r="L7" s="8" t="str">
-        <v>d</v>
-      </c>
-      <c r="M7" s="8" t="str">
-        <v>M</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -4757,13 +4725,8 @@
       <c r="G8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -4773,13 +4736,8 @@
       <c r="C9" s="4">
         <v>40</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -4789,13 +4747,14 @@
       <c r="C10" s="4">
         <v>50</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="E10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -4805,13 +4764,8 @@
       <c r="C11" s="4">
         <v>19</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
         <v>8</v>
       </c>
@@ -4821,11 +4775,115 @@
       <c r="C12" s="4">
         <v>70</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C15" s="7" t="str" cm="1">
+        <f t="array" ref="C15:G18">_xll.R.DB_Union(A4:C12,E4:G8,F10)</f>
+        <v>ID</v>
+      </c>
+      <c r="D15" s="8" t="str">
+        <v>ID2.x</v>
+      </c>
+      <c r="E15" s="8" t="str">
+        <v>EDAD</v>
+      </c>
+      <c r="F15" s="8" t="str">
+        <v>ID2.y</v>
+      </c>
+      <c r="G15" s="8" t="str">
+        <v>GENERO</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C16" s="8" t="str">
+        <v>1</v>
+      </c>
+      <c r="D16" s="8" t="str">
+        <v>a</v>
+      </c>
+      <c r="E16" s="8">
+        <v>26</v>
+      </c>
+      <c r="F16" s="8" t="str">
+        <v>b</v>
+      </c>
+      <c r="G16" s="8" t="str">
+        <v>M</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C17" s="8" t="str">
+        <v>4</v>
+      </c>
+      <c r="D17" s="8" t="str">
+        <v>b</v>
+      </c>
+      <c r="E17" s="8">
+        <v>32</v>
+      </c>
+      <c r="F17" s="8" t="str">
+        <v>b</v>
+      </c>
+      <c r="G17" s="8" t="str">
+        <v>F</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C18" s="8" t="str">
+        <v>7</v>
+      </c>
+      <c r="D18" s="8" t="str">
+        <v>d</v>
+      </c>
+      <c r="E18" s="8">
+        <v>19</v>
+      </c>
+      <c r="F18" s="8" t="str">
+        <v>d</v>
+      </c>
+      <c r="G18" s="8" t="str">
+        <v>M</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EJEMPLOS EN EXCEL/BONILLA/R4XL-PIVOTE.xlsx
+++ b/EJEMPLOS EN EXCEL/BONILLA/R4XL-PIVOTE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\R4XCL\LIBRERIA\EJEMPLOS EN EXCEL\BONILLA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F2906A-65ED-41CB-8981-6E2219F5F3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7778075-F18A-4F24-89C1-5F3770D8E71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{501212C7-ACB0-498E-BD31-969CA01024C6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -238,7 +238,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4607,7 +4607,7 @@
   <dimension ref="A2:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4751,7 +4751,7 @@
         <v>26</v>
       </c>
       <c r="F10" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
@@ -4783,82 +4783,54 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C15" s="7" t="str" cm="1">
-        <f t="array" ref="C15:G18">_xll.R.DB_Union(A4:C12,E4:G8,F10)</f>
-        <v>ID</v>
-      </c>
-      <c r="D15" s="8" t="str">
-        <v>ID2.x</v>
-      </c>
-      <c r="E15" s="8" t="str">
-        <v>EDAD</v>
-      </c>
-      <c r="F15" s="8" t="str">
-        <v>ID2.y</v>
-      </c>
-      <c r="G15" s="8" t="str">
-        <v>GENERO</v>
-      </c>
+        <f t="array" ref="C15:C20">_xll.R.DB_Union(A4:C12,E4:G8,F10)</f>
+        <v>Opciones</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C16" s="8" t="str">
-        <v>1</v>
-      </c>
-      <c r="D16" s="8" t="str">
-        <v>a</v>
-      </c>
-      <c r="E16" s="8">
-        <v>26</v>
-      </c>
-      <c r="F16" s="8" t="str">
-        <v>b</v>
-      </c>
-      <c r="G16" s="8" t="str">
-        <v>M</v>
-      </c>
+        <v>[1] Inner join</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C17" s="8" t="str">
-        <v>4</v>
-      </c>
-      <c r="D17" s="8" t="str">
-        <v>b</v>
-      </c>
-      <c r="E17" s="8">
-        <v>32</v>
-      </c>
-      <c r="F17" s="8" t="str">
-        <v>b</v>
-      </c>
-      <c r="G17" s="8" t="str">
-        <v>F</v>
-      </c>
+        <v>[2] Outer join</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C18" s="8" t="str">
-        <v>7</v>
-      </c>
-      <c r="D18" s="8" t="str">
-        <v>d</v>
-      </c>
-      <c r="E18" s="8">
-        <v>19</v>
-      </c>
-      <c r="F18" s="8" t="str">
-        <v>d</v>
-      </c>
-      <c r="G18" s="8" t="str">
-        <v>M</v>
-      </c>
+        <v>[3] Cross join</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C19" s="8"/>
+      <c r="C19" s="8" t="str">
+        <v>[4] Left outer</v>
+      </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C20" s="8"/>
+      <c r="C20" s="8" t="str">
+        <v>[5] Right outer</v>
+      </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>

--- a/EJEMPLOS EN EXCEL/BONILLA/R4XL-PIVOTE.xlsx
+++ b/EJEMPLOS EN EXCEL/BONILLA/R4XL-PIVOTE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\R4XCL\LIBRERIA\EJEMPLOS EN EXCEL\BONILLA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7778075-F18A-4F24-89C1-5F3770D8E71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D57D30-BBEC-4FAF-A4F0-6E402F9C01F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{501212C7-ACB0-498E-BD31-969CA01024C6}"/>
+    <workbookView xWindow="-16560" yWindow="-1080" windowWidth="46296" windowHeight="25416" activeTab="1" xr2:uid="{501212C7-ACB0-498E-BD31-969CA01024C6}"/>
   </bookViews>
   <sheets>
     <sheet name="PIVOT" sheetId="2" r:id="rId1"/>
@@ -146,7 +146,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,8 +169,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,6 +199,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -223,23 +248,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -581,12 +620,12 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="12" width="13.06640625" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -612,7 +651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -644,7 +683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -673,7 +712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -718,7 +757,7 @@
         <v>Petal.Width</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -762,7 +801,7 @@
         <v>2.476937866984219E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -806,7 +845,7 @@
         <v>0.5937517414244915</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -850,7 +889,7 @@
         <v>0.77747343601469909</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -876,7 +915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -902,7 +941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -928,7 +967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -954,7 +993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -980,7 +1019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1006,7 +1045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1032,7 +1071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1059,7 +1098,7 @@
       </c>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1086,7 +1125,7 @@
       </c>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1112,7 +1151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1138,7 +1177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1164,7 +1203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1190,7 +1229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1216,7 +1255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1242,7 +1281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1268,7 +1307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1294,7 +1333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1320,7 +1359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1346,7 +1385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1372,7 +1411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1398,7 +1437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1424,7 +1463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1450,7 +1489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1476,7 +1515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1502,7 +1541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1528,7 +1567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1554,7 +1593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1580,7 +1619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1606,7 +1645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1632,7 +1671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1658,7 +1697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1684,7 +1723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1710,7 +1749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1736,7 +1775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1762,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1788,7 +1827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1814,7 +1853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1840,7 +1879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1866,7 +1905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1892,7 +1931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1918,7 +1957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1944,7 +1983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1970,7 +2009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1996,7 +2035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2022,7 +2061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2048,7 +2087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2074,7 +2113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2100,7 +2139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2126,7 +2165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2152,7 +2191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2178,7 +2217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2204,7 +2243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2230,7 +2269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2256,7 +2295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2282,7 +2321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2308,7 +2347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2334,7 +2373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2360,7 +2399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2386,7 +2425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2412,7 +2451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2438,7 +2477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2464,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2490,7 +2529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2516,7 +2555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2542,7 +2581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2568,7 +2607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2594,7 +2633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2620,7 +2659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2646,7 +2685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2672,7 +2711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2698,7 +2737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2724,7 +2763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2750,7 +2789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2776,7 +2815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2802,7 +2841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2828,7 +2867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2854,7 +2893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2880,7 +2919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2906,7 +2945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2932,7 +2971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2958,7 +2997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2984,7 +3023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3010,7 +3049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3036,7 +3075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3062,7 +3101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3088,7 +3127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3114,7 +3153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3140,7 +3179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3166,7 +3205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3192,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3218,7 +3257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3244,7 +3283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3270,7 +3309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3296,7 +3335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3322,7 +3361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3348,7 +3387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3374,7 +3413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3400,7 +3439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3426,7 +3465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3452,7 +3491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3478,7 +3517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3504,7 +3543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3530,7 +3569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3556,7 +3595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3582,7 +3621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3608,7 +3647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3634,7 +3673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3660,7 +3699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3686,7 +3725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3712,7 +3751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3738,7 +3777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3764,7 +3803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3790,7 +3829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3816,7 +3855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3842,7 +3881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3868,7 +3907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3894,7 +3933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3920,7 +3959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3946,7 +3985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3972,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3998,7 +4037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4024,7 +4063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4050,7 +4089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4076,7 +4115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4102,7 +4141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4128,7 +4167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4154,7 +4193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4180,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4206,7 +4245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4232,7 +4271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4258,7 +4297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4284,7 +4323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4310,7 +4349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4336,7 +4375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4362,7 +4401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4388,7 +4427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4414,7 +4453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4440,7 +4479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4466,7 +4505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4492,7 +4531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4518,7 +4557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4544,7 +4583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4570,7 +4609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4606,256 +4645,292 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E88A1FC-D852-4742-BDAB-CDA925D54C3E}">
   <dimension ref="A2:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="E3" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="4">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6">
         <v>26</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="7">
         <v>7</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="4">
-        <v>2</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="6">
         <v>28</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="7">
         <v>4</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>3</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="6">
         <v>14</v>
       </c>
-      <c r="E7" s="6">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
         <v>4</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="6">
         <v>32</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="7">
         <v>9</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" s="4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
         <v>5</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="6">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" s="4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
         <v>6</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="6">
         <v>50</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" s="4">
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
         <v>7</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="6">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A12" s="4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
         <v>8</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="6">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="C14" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C14" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="C15" s="7" t="str" cm="1">
-        <f t="array" ref="C15:C20">_xll.R.DB_Union(A4:C12,E4:G8,F10)</f>
-        <v>Opciones</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="C16" s="8" t="str">
-        <v>[1] Inner join</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C17" s="8" t="str">
-        <v>[2] Outer join</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C18" s="8" t="str">
-        <v>[3] Cross join</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C19" s="8" t="str">
-        <v>[4] Left outer</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C20" s="8" t="str">
-        <v>[5] Right outer</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C15" s="8" t="str" cm="1">
+        <f t="array" ref="C15:G18">_xll.R.DB_Union(A4:C12,E4:G8,F10)</f>
+        <v>ID</v>
+      </c>
+      <c r="D15" s="9" t="str">
+        <v>ID2.x</v>
+      </c>
+      <c r="E15" s="9" t="str">
+        <v>EDAD</v>
+      </c>
+      <c r="F15" s="9" t="str">
+        <v>ID2.y</v>
+      </c>
+      <c r="G15" s="9" t="str">
+        <v>GENERO</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C16" s="9" t="str">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9" t="str">
+        <v>a</v>
+      </c>
+      <c r="E16" s="9">
+        <v>26</v>
+      </c>
+      <c r="F16" s="9" t="str">
+        <v>b</v>
+      </c>
+      <c r="G16" s="9" t="str">
+        <v>M</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C17" s="9" t="str">
+        <v>4</v>
+      </c>
+      <c r="D17" s="9" t="str">
+        <v>b</v>
+      </c>
+      <c r="E17" s="9">
+        <v>32</v>
+      </c>
+      <c r="F17" s="9" t="str">
+        <v>b</v>
+      </c>
+      <c r="G17" s="9" t="str">
+        <v>F</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C18" s="9" t="str">
+        <v>7</v>
+      </c>
+      <c r="D18" s="9" t="str">
+        <v>d</v>
+      </c>
+      <c r="E18" s="9">
+        <v>19</v>
+      </c>
+      <c r="F18" s="9" t="str">
+        <v>d</v>
+      </c>
+      <c r="G18" s="9" t="str">
+        <v>M</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EJEMPLOS EN EXCEL/BONILLA/R4XL-PIVOTE.xlsx
+++ b/EJEMPLOS EN EXCEL/BONILLA/R4XL-PIVOTE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\R4XCL\LIBRERIA\EJEMPLOS EN EXCEL\BONILLA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D57D30-BBEC-4FAF-A4F0-6E402F9C01F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E4FA57-4252-404C-BBBF-1275F8FB9C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16560" yWindow="-1080" windowWidth="46296" windowHeight="25416" activeTab="1" xr2:uid="{501212C7-ACB0-498E-BD31-969CA01024C6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{501212C7-ACB0-498E-BD31-969CA01024C6}"/>
   </bookViews>
   <sheets>
     <sheet name="PIVOT" sheetId="2" r:id="rId1"/>
@@ -146,7 +146,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,8 +176,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,6 +227,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -248,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -280,6 +293,7 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,15 +631,15 @@
   <dimension ref="A1:O151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="12" max="12" width="13.109375" customWidth="1"/>
+    <col min="12" max="12" width="13.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -651,7 +665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -676,14 +690,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="13" t="s">
         <v>9</v>
       </c>
       <c r="K2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -712,7 +726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -757,7 +771,7 @@
         <v>Petal.Width</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -789,19 +803,19 @@
         <v>a</v>
       </c>
       <c r="L5">
-        <v>0.83440121725996419</v>
+        <v>5</v>
       </c>
       <c r="M5">
-        <v>0.55789505678828888</v>
+        <v>3.4</v>
       </c>
       <c r="N5">
-        <v>0.48738702836424963</v>
+        <v>1.5</v>
       </c>
       <c r="O5">
-        <v>2.476937866984219E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -833,19 +847,19 @@
         <v>a</v>
       </c>
       <c r="L6">
-        <v>0.93929150239315728</v>
+        <v>6.5</v>
       </c>
       <c r="M6">
-        <v>0.44657143018442502</v>
+        <v>3</v>
       </c>
       <c r="N6">
-        <v>0.286094752030569</v>
+        <v>5.55</v>
       </c>
       <c r="O6">
-        <v>0.5937517414244915</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -877,19 +891,19 @@
         <v>r</v>
       </c>
       <c r="L7">
-        <v>0.6589900177197503</v>
+        <v>5.9</v>
       </c>
       <c r="M7">
-        <v>0.48422840136112288</v>
+        <v>2.8</v>
       </c>
       <c r="N7">
-        <v>0.23524120380877855</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="O7">
-        <v>0.77747343601469909</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -915,7 +929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -941,7 +955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -967,7 +981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -993,7 +1007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1016,10 +1030,10 @@
         <v>11</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1045,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1071,7 +1085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1098,7 +1112,7 @@
       </c>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1125,7 +1139,7 @@
       </c>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1151,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1177,7 +1191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1203,7 +1217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1229,7 +1243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1255,7 +1269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1281,7 +1295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1307,7 +1321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1333,7 +1347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1359,7 +1373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1385,7 +1399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1411,7 +1425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1437,7 +1451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1463,7 +1477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1489,7 +1503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1515,7 +1529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1541,7 +1555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1567,7 +1581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1593,7 +1607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1619,7 +1633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1645,7 +1659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1671,7 +1685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1697,7 +1711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1723,7 +1737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1749,7 +1763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1775,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1801,7 +1815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1827,7 +1841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1853,7 +1867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1879,7 +1893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1905,7 +1919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1931,7 +1945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1957,7 +1971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1983,7 +1997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2009,7 +2023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2035,7 +2049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2061,7 +2075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2087,7 +2101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2113,7 +2127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2139,7 +2153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2165,7 +2179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2191,7 +2205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2217,7 +2231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2243,7 +2257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2269,7 +2283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2295,7 +2309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2321,7 +2335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2347,7 +2361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2373,7 +2387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2399,7 +2413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2425,7 +2439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2451,7 +2465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2477,7 +2491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2503,7 +2517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2529,7 +2543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2555,7 +2569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2581,7 +2595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2607,7 +2621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2633,7 +2647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2659,7 +2673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2685,7 +2699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2711,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2737,7 +2751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2763,7 +2777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2789,7 +2803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2815,7 +2829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2841,7 +2855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2867,7 +2881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2893,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2919,7 +2933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2945,7 +2959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2971,7 +2985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2997,7 +3011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3023,7 +3037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3049,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3075,7 +3089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3101,7 +3115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3127,7 +3141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3153,7 +3167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3179,7 +3193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3205,7 +3219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3231,7 +3245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3257,7 +3271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3283,7 +3297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3309,7 +3323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3335,7 +3349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3361,7 +3375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3387,7 +3401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3413,7 +3427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3439,7 +3453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3465,7 +3479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3491,7 +3505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3517,7 +3531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3543,7 +3557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3569,7 +3583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3595,7 +3609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3621,7 +3635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3647,7 +3661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3673,7 +3687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3699,7 +3713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3725,7 +3739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3751,7 +3765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3777,7 +3791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3803,7 +3817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3829,7 +3843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3855,7 +3869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3881,7 +3895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3907,7 +3921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3933,7 +3947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3959,7 +3973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3985,7 +3999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4011,7 +4025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>127</v>
       </c>
@@ -4037,7 +4051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4063,7 +4077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4089,7 +4103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4115,7 +4129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4141,7 +4155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4167,7 +4181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4193,7 +4207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4219,7 +4233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4245,7 +4259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4271,7 +4285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4297,7 +4311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4323,7 +4337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4349,7 +4363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4375,7 +4389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4401,7 +4415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4427,7 +4441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4453,7 +4467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4479,7 +4493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4505,7 +4519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4531,7 +4545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4557,7 +4571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4583,7 +4597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4609,7 +4623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4646,18 +4660,18 @@
   <dimension ref="A2:J23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
@@ -4669,7 +4683,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -4689,7 +4703,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -4709,7 +4723,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="6">
         <v>2</v>
       </c>
@@ -4729,7 +4743,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -4749,7 +4763,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>4</v>
       </c>
@@ -4769,7 +4783,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>5</v>
       </c>
@@ -4780,7 +4794,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -4797,7 +4811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -4808,7 +4822,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -4819,7 +4833,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C14" s="12" t="s">
         <v>24</v>
       </c>
@@ -4828,7 +4842,7 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C15" s="8" t="str" cm="1">
         <f t="array" ref="C15:G18">_xll.R.DB_Union(A4:C12,E4:G8,F10)</f>
         <v>ID</v>
@@ -4846,7 +4860,7 @@
         <v>GENERO</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C16" s="9" t="str">
         <v>1</v>
       </c>
@@ -4863,7 +4877,7 @@
         <v>M</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C17" s="9" t="str">
         <v>4</v>
       </c>
@@ -4880,7 +4894,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C18" s="9" t="str">
         <v>7</v>
       </c>
@@ -4897,35 +4911,35 @@
         <v>M</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
